--- a/individual_results/avey/393.xlsx
+++ b/individual_results/avey/393.xlsx
@@ -558,10 +558,10 @@
         <v>0.2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0.2</v>
@@ -576,7 +576,7 @@
         <v>0.5</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0.5</v>
@@ -664,10 +664,10 @@
         <v>0.5</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -701,12 +701,8 @@
       <c r="C4" t="n">
         <v>0.2857142857142858</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
         <v>0.2857142857142858</v>
       </c>
@@ -716,7 +712,7 @@
         <v>0.5</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
@@ -724,9 +720,11 @@
       <c r="N4" t="n">
         <v>0.4</v>
       </c>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="P4" t="n">
-        <v>0.5714285714285715</v>
+        <v>0.2857142857142858</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
@@ -758,12 +756,8 @@
       <c r="C5" t="n">
         <v>0.3846153846153846</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
         <v>0.3846153846153846</v>
       </c>
@@ -773,7 +767,7 @@
         <v>0.5</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
@@ -781,9 +775,11 @@
       <c r="N5" t="n">
         <v>0.4545454545454545</v>
       </c>
-      <c r="O5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>0.5555555555555556</v>
+      </c>
       <c r="P5" t="n">
-        <v>0.7692307692307692</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
@@ -818,10 +814,10 @@
         <v>0.8262346571285599</v>
       </c>
       <c r="D6" t="n">
-        <v>0.52129602861432</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.52129602861432</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0.8262346571285599</v>
@@ -836,7 +832,7 @@
         <v>0.8262346571285599</v>
       </c>
       <c r="J6" t="n">
-        <v>0.41311732856428</v>
+        <v>0.8262346571285599</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -851,10 +847,10 @@
         <v>0.52129602861432</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>0.8262346571285599</v>
       </c>
       <c r="P6" t="n">
-        <v>0.58688267143572</v>
+        <v>0.3558398982930783</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -909,7 +905,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
@@ -924,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="b">
         <v>0</v>
@@ -964,10 +960,10 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -997,10 +993,10 @@
         <v>1</v>
       </c>
       <c r="O8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="b">
         <v>0</v>
@@ -1037,10 +1033,10 @@
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -1070,7 +1066,7 @@
         <v>1</v>
       </c>
       <c r="O9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="b">
         <v>1</v>
@@ -1107,12 +1103,8 @@
       <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D10" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2</v>
-      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
         <v>1</v>
       </c>
@@ -1122,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
@@ -1130,9 +1122,11 @@
       <c r="N10" t="n">
         <v>2</v>
       </c>
-      <c r="O10" t="inlineStr"/>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
@@ -1183,7 +1177,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="K11" t="n">
         <v>0.5</v>
